--- a/data/trans_orig/cron_index-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/cron_index-Dificultad-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6466614067394814</v>
+        <v>0.6385385752617355</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5389038656016706</v>
+        <v>0.5361913129150785</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5875135539364154</v>
+        <v>0.5888999237715363</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9140415443241622</v>
+        <v>0.9138903302378335</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9050622970949702</v>
+        <v>0.9099658651191533</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8517879145741687</v>
+        <v>0.8572514896266801</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7806955954861371</v>
+        <v>0.7883572008341813</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.225014106598374</v>
+        <v>1.235808859423003</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8284459098597652</v>
+        <v>0.8314489755379409</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.7247167428920818</v>
+        <v>0.7155022700818405</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.7083173776806377</v>
+        <v>0.7127897002591295</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>1.134256813166056</v>
+        <v>1.128345343082734</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8374596310203409</v>
+        <v>0.8388365014984733</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6865784801370466</v>
+        <v>0.6805764077459339</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7269574803577372</v>
+        <v>0.7264171174741013</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.222464508297743</v>
+        <v>1.221657369931198</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.074582478720039</v>
+        <v>1.078649058214216</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.021988361768486</v>
+        <v>1.017408487670503</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9296907930905977</v>
+        <v>0.9383149384785711</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.480228853949166</v>
+        <v>1.470730243817831</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9593681804613035</v>
+        <v>0.9580394973894879</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.8346762743118769</v>
+        <v>0.828370186064871</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.8147599017025801</v>
+        <v>0.8133904255526918</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>1.327459683597483</v>
+        <v>1.32540201992101</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.6004707771377699</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.9025106405247192</v>
+        <v>0.9025106405247191</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.6849159647244382</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4505635862257774</v>
+        <v>0.4575579306807966</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5343950776316982</v>
+        <v>0.5454625953133211</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5388775234698143</v>
+        <v>0.5395661897357564</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8109302301971768</v>
+        <v>0.8118051652384888</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6155384666442325</v>
+        <v>0.6272244028484933</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7366265169734463</v>
+        <v>0.7372583258274058</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.662851329875724</v>
+        <v>0.6604615688345198</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.9688955406983409</v>
+        <v>0.9654878877990204</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5517729452430938</v>
+        <v>0.5528230508333525</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.6575727975376338</v>
+        <v>0.6613047215398284</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.6192175245886858</v>
+        <v>0.6197925024284326</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.9181755532432946</v>
+        <v>0.9161766254662859</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5647602556641339</v>
+        <v>0.567929431140646</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6839591123394243</v>
+        <v>0.6845902485302615</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6792672833513688</v>
+        <v>0.6794015998682713</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9970701773568162</v>
+        <v>1.006821433059474</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7519740884407367</v>
+        <v>0.760452982180038</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8876794887722056</v>
+        <v>0.8817413473102274</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8147612104147237</v>
+        <v>0.8157269089220617</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>1.117108052562513</v>
+        <v>1.117916971337561</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6407499388955341</v>
+        <v>0.6431665678514774</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.7639785584496809</v>
+        <v>0.7661710885437523</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7220791020758548</v>
+        <v>0.7271124333558352</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>1.034387669374622</v>
+        <v>1.041360781437942</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.5779319407877604</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.8523844786219822</v>
+        <v>0.8523844786219823</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.5696209129279769</v>
@@ -953,7 +953,7 @@
         <v>0.7029908781461477</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.8909135201251654</v>
+        <v>0.8909135201251657</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.4826321369712357</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3593990587774651</v>
+        <v>0.361052166266273</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6182338313380168</v>
+        <v>0.6180524609173431</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5154935456669286</v>
+        <v>0.5092687616871919</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.777957469679978</v>
+        <v>0.7809822590427422</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.501394384939966</v>
+        <v>0.5075881142206966</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6766714679627773</v>
+        <v>0.6816006875380739</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6334992170400908</v>
+        <v>0.6315796695523245</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8258476691111815</v>
+        <v>0.8188568016218716</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4433299774249284</v>
+        <v>0.4437342599272621</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6662151522322481</v>
+        <v>0.6717594528540408</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.5871389145119781</v>
+        <v>0.5838960746904261</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.8194912082247274</v>
+        <v>0.8119687370717801</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4559264103577576</v>
+        <v>0.4615367285761064</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.772817356539758</v>
+        <v>0.7777494438630812</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.652935832539139</v>
+        <v>0.6514059483050897</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9265409928801762</v>
+        <v>0.9412275313108265</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6382946458735914</v>
+        <v>0.6411677113275557</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8341029800597439</v>
+        <v>0.8379741491576178</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.79344054659064</v>
+        <v>0.7842817159931756</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9678067431542715</v>
+        <v>0.9667095115057763</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5272273552504768</v>
+        <v>0.5274201502007163</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7821301421532231</v>
+        <v>0.7865682818274373</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.6890986744353336</v>
+        <v>0.6958683953906786</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.9280740737351071</v>
+        <v>0.922580177935027</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.6153556516964862</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9043430192415391</v>
+        <v>0.9043430192415393</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.4934273907586891</v>
@@ -1089,7 +1089,7 @@
         <v>0.6195197261629265</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.8570784504878715</v>
+        <v>0.8570784504878713</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.4404365778302725</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3249621033990618</v>
+        <v>0.3239514500742529</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4600209848258511</v>
+        <v>0.4513705511719057</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5259472563741527</v>
+        <v>0.528357867039679</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8097172070332138</v>
+        <v>0.8211979292070002</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3930728608895977</v>
+        <v>0.4087799293249014</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5453324871169939</v>
+        <v>0.5524897940583406</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5242827917207752</v>
+        <v>0.5216883674678147</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.7847709021564239</v>
+        <v>0.7886360344950463</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3818499343874004</v>
+        <v>0.3779889010396305</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5267528052544692</v>
+        <v>0.5302855620433022</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5475009528653993</v>
+        <v>0.5564284962592457</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.8284287302918284</v>
+        <v>0.8258172918348002</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4874834538566074</v>
+        <v>0.4837031584230221</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6609128542992834</v>
+        <v>0.6601045779607073</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7154653428851526</v>
+        <v>0.7164865951559162</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9993001379222579</v>
+        <v>0.998217735469802</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6127200738132307</v>
+        <v>0.6291574965140279</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7514620584171982</v>
+        <v>0.7586669753741587</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7378378911727088</v>
+        <v>0.7240265521047505</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9270035490001332</v>
+        <v>0.9242421994257271</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5062306363944099</v>
+        <v>0.5138451511708565</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6701255646152059</v>
+        <v>0.6760614296923347</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.6867621444128938</v>
+        <v>0.6923491648302245</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.9406834368883635</v>
+        <v>0.9394094452104789</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4697194747067627</v>
+        <v>0.4675096007624858</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5809348696843424</v>
+        <v>0.5802977315421358</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5763667583245725</v>
+        <v>0.5768703430429944</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8664828688769979</v>
+        <v>0.8658633191355425</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.6756030122758355</v>
+        <v>0.6712251853905877</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7705059944578776</v>
+        <v>0.7690241597682947</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.713588447696159</v>
+        <v>0.715410370926607</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.962097020625134</v>
+        <v>0.9637996333174844</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5835991216532627</v>
+        <v>0.5837262086448669</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.6894145573224507</v>
+        <v>0.6910081786172808</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.656266095112173</v>
+        <v>0.6601752228421226</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.9276883322499383</v>
+        <v>0.9285027637773635</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5385206718149941</v>
+        <v>0.534887550556955</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6639478504954777</v>
+        <v>0.6580136010585218</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6486889676462548</v>
+        <v>0.6487823146187753</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9601267745519181</v>
+        <v>0.9600518486999658</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7544629706043445</v>
+        <v>0.7515861652330662</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.854188283873324</v>
+        <v>0.8550756563901657</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7952471056100913</v>
+        <v>0.7969713317445443</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.044431375078952</v>
+        <v>1.043210860353056</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.633149229308578</v>
+        <v>0.6324793061800856</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7494515054826204</v>
+        <v>0.7467410735142647</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.7145744105583122</v>
+        <v>0.7172084282535177</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.9940810872455725</v>
+        <v>0.9913608842656786</v>
       </c>
     </row>
     <row r="19">
